--- a/時間表.xlsx
+++ b/時間表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>項目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -162,13 +162,21 @@
     <t>可先開始模擬高頻率測試場景</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -232,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -524,7 +532,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -599,7 +607,12 @@
       <c r="C4" s="2">
         <v>45179</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>45179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -611,7 +624,12 @@
       <c r="C5" s="2">
         <v>45179</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>45180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">

--- a/時間表.xlsx
+++ b/時間表.xlsx
@@ -64,12 +64,6 @@
     <t>計時器 chrono 1 string replace, split — 9/11</t>
   </si>
   <si>
-    <t>定時器 1</t>
-  </si>
-  <si>
-    <t>事件回調 1</t>
-  </si>
-  <si>
     <t>crash log 1</t>
   </si>
   <si>
@@ -168,6 +162,14 @@
   </si>
   <si>
     <t>V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定時器 1 =&gt; same as up, need change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件回調 1 =&gt; same as websocketpp, need change</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +534,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -551,16 +553,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -577,7 +579,7 @@
         <v>45178</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -594,7 +596,7 @@
         <v>45178</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -611,7 +613,7 @@
         <v>45179</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,67 +630,67 @@
         <v>45180</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
+      <c r="A6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>45182</v>
       </c>
       <c r="C6" s="2">
-        <v>45179</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>45182</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45182</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>45183</v>
       </c>
       <c r="C7" s="2">
-        <v>45179</v>
+        <v>45183</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>45184</v>
       </c>
       <c r="C8" s="2">
-        <v>45179</v>
+        <v>45184</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
+      <c r="A9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>45185</v>
       </c>
       <c r="C9" s="2">
-        <v>45180</v>
+        <v>45185</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
+      <c r="A10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>45186</v>
       </c>
-      <c r="C10" s="2">
-        <v>45181</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -698,241 +700,199 @@
       <c r="B11" s="2">
         <v>45187</v>
       </c>
-      <c r="C11" s="2">
-        <v>45182</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2">
         <v>45188</v>
       </c>
-      <c r="C12" s="2">
-        <v>45183</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2">
         <v>45189</v>
       </c>
-      <c r="C13" s="2">
-        <v>45184</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>45190</v>
       </c>
-      <c r="C14" s="2">
-        <v>45185</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>45191</v>
       </c>
-      <c r="C15" s="2">
-        <v>45185</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
         <v>45192</v>
       </c>
-      <c r="C16" s="2">
-        <v>45185</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2">
         <v>45193</v>
       </c>
-      <c r="C17" s="2">
-        <v>45185</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
         <v>45194</v>
       </c>
-      <c r="C18" s="2">
-        <v>45185</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
         <v>45195</v>
       </c>
-      <c r="C19" s="2">
-        <v>45185</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
         <v>45196</v>
       </c>
-      <c r="C20" s="2">
-        <v>45186</v>
-      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
         <v>45197</v>
       </c>
-      <c r="C21" s="2">
-        <v>45186</v>
-      </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
         <v>45198</v>
       </c>
-      <c r="C22" s="2">
-        <v>45186</v>
-      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>45199</v>
       </c>
-      <c r="C23" s="2">
-        <v>45187</v>
-      </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2">
         <v>45200</v>
       </c>
-      <c r="C24" s="2">
-        <v>45188</v>
-      </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2">
         <v>45201</v>
       </c>
-      <c r="C25" s="2">
-        <v>45192</v>
-      </c>
+      <c r="C25" s="2"/>
       <c r="F25" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2">
         <v>45202</v>
       </c>
-      <c r="C26" s="2">
-        <v>45192</v>
-      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2">
         <v>45203</v>
       </c>
-      <c r="C27" s="2">
-        <v>45192</v>
-      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2">
         <v>45204</v>
       </c>
-      <c r="C28" s="2">
-        <v>45192</v>
-      </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2">
         <v>45205</v>
       </c>
-      <c r="C29" s="2">
-        <v>45192</v>
-      </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2">
         <v>45206</v>
       </c>
-      <c r="C30" s="2">
-        <v>45193</v>
-      </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2">
         <v>45207</v>
       </c>
-      <c r="C31" s="2">
-        <v>45199</v>
-      </c>
+      <c r="C31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
